--- a/Code/Results/Cases/Case_1_95/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_1_95/res_line/loading_percent.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>24.09099310661614</v>
+        <v>25.85343767732582</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>14.83379634311842</v>
+        <v>9.550230153615134</v>
       </c>
       <c r="E2">
-        <v>18.74885636233176</v>
+        <v>10.45727246715741</v>
       </c>
       <c r="F2">
-        <v>64.84208660163621</v>
+        <v>66.59311567044979</v>
       </c>
       <c r="G2">
-        <v>2.053394395966071</v>
+        <v>3.820372507857817</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -445,13 +445,13 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>9.377141676519798</v>
+        <v>8.542043128433704</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>17.44211740332823</v>
+        <v>17.98701911609311</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>22.65807525775107</v>
+        <v>25.64593079951253</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>13.62964313459571</v>
+        <v>9.218564300274311</v>
       </c>
       <c r="E3">
-        <v>17.36338016939188</v>
+        <v>9.838963373823209</v>
       </c>
       <c r="F3">
-        <v>61.34228653687595</v>
+        <v>66.15088868684322</v>
       </c>
       <c r="G3">
-        <v>2.080314775607301</v>
+        <v>3.82842641172373</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -492,13 +492,13 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>8.944003614216667</v>
+        <v>8.404907305415554</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>16.09499159402157</v>
+        <v>17.83430720725267</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>21.76832300532508</v>
+        <v>25.52560547109606</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>12.87195556351316</v>
+        <v>9.013021350710956</v>
       </c>
       <c r="E4">
-        <v>16.48957450028939</v>
+        <v>9.438308263863764</v>
       </c>
       <c r="F4">
-        <v>59.24299293314296</v>
+        <v>65.89934625508994</v>
       </c>
       <c r="G4">
-        <v>2.096779723675031</v>
+        <v>3.833609952691488</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -539,13 +539,13 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>8.675566193849427</v>
+        <v>8.318445617014282</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>15.38705951212462</v>
+        <v>17.74576611437235</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>21.40312640910047</v>
+        <v>25.47839708208314</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>12.55788782008279</v>
+        <v>8.928924576134543</v>
       </c>
       <c r="E5">
-        <v>16.12693874179583</v>
+        <v>9.269789327110352</v>
       </c>
       <c r="F5">
-        <v>58.39860483311418</v>
+        <v>65.80189165522424</v>
       </c>
       <c r="G5">
-        <v>2.103496917398091</v>
+        <v>3.835782599112261</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -586,13 +586,13 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>8.565352074132708</v>
+        <v>8.282659733664286</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>15.10872534025106</v>
+        <v>17.71103117816874</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>21.3423277636796</v>
+        <v>25.47066960697197</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>12.50539882031183</v>
+        <v>8.91494437093805</v>
       </c>
       <c r="E6">
-        <v>16.06630869258827</v>
+        <v>9.241491118842847</v>
       </c>
       <c r="F6">
-        <v>58.25903413443881</v>
+        <v>65.78601500025815</v>
       </c>
       <c r="G6">
-        <v>2.104613377119717</v>
+        <v>3.836147018586329</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -633,13 +633,13 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>8.546996669602724</v>
+        <v>8.276684659655485</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>15.06237987827864</v>
+        <v>17.70534567786786</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>21.76340845240468</v>
+        <v>25.52496135712525</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>12.86774223809489</v>
+        <v>9.011888360383182</v>
       </c>
       <c r="E7">
-        <v>16.4847112716286</v>
+        <v>9.436056756307073</v>
       </c>
       <c r="F7">
-        <v>59.23156175790465</v>
+        <v>65.89801147103491</v>
       </c>
       <c r="G7">
-        <v>2.09687025499234</v>
+        <v>3.833639009084099</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -680,13 +680,13 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>8.674083361851642</v>
+        <v>8.317965209398109</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>15.38331434514962</v>
+        <v>17.74529217483821</v>
       </c>
       <c r="M7">
         <v>0</v>
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>23.59885640820235</v>
+        <v>25.78044609405234</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>14.42194844691839</v>
+        <v>9.436347396233648</v>
       </c>
       <c r="E8">
-        <v>18.2754468885564</v>
+        <v>10.24845758293781</v>
       </c>
       <c r="F8">
-        <v>63.62405011665624</v>
+        <v>66.43650560097517</v>
       </c>
       <c r="G8">
-        <v>2.062705627156144</v>
+        <v>3.823100230077505</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -727,13 +727,13 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>9.228173192700904</v>
+        <v>8.495237181464258</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>16.98289300047884</v>
+        <v>17.93329996551435</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>27.25887974459625</v>
+        <v>26.33559009459258</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>17.36458158896105</v>
+        <v>10.24797575814438</v>
       </c>
       <c r="E9">
-        <v>21.64741670763791</v>
+        <v>11.67388266219639</v>
       </c>
       <c r="F9">
-        <v>72.731250911327</v>
+        <v>67.64952953001678</v>
       </c>
       <c r="G9">
-        <v>1.993824519453489</v>
+        <v>3.80430885996058</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -774,13 +774,13 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>10.30805155881769</v>
+        <v>8.824268732024404</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>20.22740945603869</v>
+        <v>18.34189044097571</v>
       </c>
       <c r="M9">
         <v>0</v>
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>30.17404256716005</v>
+        <v>26.77348414838143</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>19.54029800074762</v>
+        <v>10.82483342222353</v>
       </c>
       <c r="E10">
-        <v>24.1255050090582</v>
+        <v>12.61821553159197</v>
       </c>
       <c r="F10">
-        <v>79.9492316605847</v>
+        <v>68.63380691732878</v>
       </c>
       <c r="G10">
-        <v>1.939420706364319</v>
+        <v>3.791622681225506</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -821,13 +821,13 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>11.12516766291797</v>
+        <v>9.053839261153371</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>22.56813119507147</v>
+        <v>18.66419170239225</v>
       </c>
       <c r="M10">
         <v>0</v>
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>31.51174396921758</v>
+        <v>26.97853322612105</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>20.56086287823966</v>
+        <v>11.08182546718893</v>
       </c>
       <c r="E11">
-        <v>25.28403392042711</v>
+        <v>13.02545256364315</v>
       </c>
       <c r="F11">
-        <v>83.50690184966433</v>
+        <v>69.10104588335767</v>
       </c>
       <c r="G11">
-        <v>1.912904964266586</v>
+        <v>3.786089498728377</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -868,13 +868,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>11.51276258293342</v>
+        <v>9.155475697495021</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>23.64769427224855</v>
+        <v>18.81510858461062</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>32.02313673742574</v>
+        <v>27.05696134690075</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>20.95546214424033</v>
+        <v>11.17827543426223</v>
       </c>
       <c r="E12">
-        <v>25.73140024422025</v>
+        <v>13.17645345916744</v>
       </c>
       <c r="F12">
-        <v>84.93451980257112</v>
+        <v>69.28070448660235</v>
       </c>
       <c r="G12">
-        <v>1.902484869161419</v>
+        <v>3.784028020128146</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -915,13 +915,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>11.66330353560454</v>
+        <v>9.193548345993975</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>24.06181087699453</v>
+        <v>18.87283091702388</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>31.91271684257828</v>
+        <v>27.04003671080956</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>20.87003796094751</v>
+        <v>11.15754306540786</v>
       </c>
       <c r="E13">
-        <v>25.63457833759064</v>
+        <v>13.14407544607468</v>
       </c>
       <c r="F13">
-        <v>84.62499214947906</v>
+        <v>69.24189187143166</v>
       </c>
       <c r="G13">
-        <v>1.904748529527469</v>
+        <v>3.784470498503913</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -962,13 +962,13 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>11.63068241305757</v>
+        <v>9.185367364514807</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>23.97231995902583</v>
+        <v>18.86037460220145</v>
       </c>
       <c r="M13">
         <v>0</v>
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>31.55369604461437</v>
+        <v>26.98497026340439</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>20.59313625597009</v>
+        <v>11.08977831072216</v>
       </c>
       <c r="E14">
-        <v>25.32063444540585</v>
+        <v>13.03793982374854</v>
       </c>
       <c r="F14">
-        <v>83.62345000242321</v>
+        <v>69.11577234730558</v>
       </c>
       <c r="G14">
-        <v>1.912056223822148</v>
+        <v>3.785919224090739</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1009,13 +1009,13 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>11.52506099557719</v>
+        <v>9.158616341484793</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>23.68163383260454</v>
+        <v>18.81984620438212</v>
       </c>
       <c r="M14">
         <v>0</v>
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>31.33453463625544</v>
+        <v>26.95134030083606</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>20.42472458593841</v>
+        <v>11.04815507083494</v>
       </c>
       <c r="E15">
-        <v>25.12961940100039</v>
+        <v>12.97251066370867</v>
       </c>
       <c r="F15">
-        <v>83.01570401517854</v>
+        <v>69.03887302949506</v>
       </c>
       <c r="G15">
-        <v>1.91647831993874</v>
+        <v>3.786811002992855</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1056,13 +1056,13 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>11.46091197731591</v>
+        <v>9.142176176949372</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>23.50439141089993</v>
+        <v>18.79509471447258</v>
       </c>
       <c r="M15">
         <v>0</v>
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>30.08709291399453</v>
+        <v>26.76019625040204</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>19.47450184530639</v>
+        <v>10.8079215381101</v>
       </c>
       <c r="E16">
-        <v>24.05073541654968</v>
+        <v>12.59115210065621</v>
       </c>
       <c r="F16">
-        <v>79.72633335094696</v>
+        <v>68.60365745463156</v>
       </c>
       <c r="G16">
-        <v>1.941108544195556</v>
+        <v>3.79198904084506</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1103,13 +1103,13 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>11.10026836252891</v>
+        <v>9.047139700527673</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>22.49811755968094</v>
+        <v>18.65441163384619</v>
       </c>
       <c r="M16">
         <v>0</v>
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>29.32663581207336</v>
+        <v>26.64439087375056</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>18.90162426251976</v>
+        <v>10.65909139548766</v>
       </c>
       <c r="E17">
-        <v>23.39929767865245</v>
+        <v>12.35147826201945</v>
       </c>
       <c r="F17">
-        <v>77.79675222442891</v>
+        <v>68.34160520571541</v>
       </c>
       <c r="G17">
-        <v>1.95569269665377</v>
+        <v>3.795226241804079</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1150,13 +1150,13 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>10.8839474906283</v>
+        <v>8.988112328173688</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>21.88644418457105</v>
+        <v>18.56917678374137</v>
       </c>
       <c r="M17">
         <v>0</v>
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>28.89008052645947</v>
+        <v>26.57833691994466</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>18.57473086644728</v>
+        <v>10.5729822997227</v>
       </c>
       <c r="E18">
-        <v>23.0272201978649</v>
+        <v>12.21152060808207</v>
       </c>
       <c r="F18">
-        <v>76.70516969782732</v>
+        <v>68.19271886506681</v>
       </c>
       <c r="G18">
-        <v>1.96392457520655</v>
+        <v>3.797110602333665</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1197,13 +1197,13 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>10.76090262898309</v>
+        <v>8.953898844770881</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>21.53576524956948</v>
+        <v>18.52055948186517</v>
       </c>
       <c r="M18">
         <v>0</v>
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>28.74233955610214</v>
+        <v>26.55606920374106</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>18.4644107221781</v>
+        <v>10.54374318267953</v>
       </c>
       <c r="E19">
-        <v>22.90159112018541</v>
+        <v>12.1637720530945</v>
       </c>
       <c r="F19">
-        <v>76.33842165733391</v>
+        <v>68.14262661927405</v>
       </c>
       <c r="G19">
-        <v>1.966687842647231</v>
+        <v>3.797752474600249</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1244,13 +1244,13 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>10.71944360241433</v>
+        <v>8.942270065920468</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>21.41715106819849</v>
+        <v>18.504169851408</v>
       </c>
       <c r="M19">
         <v>0</v>
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>29.40748232682346</v>
+        <v>26.65666162782803</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>18.96231612719158</v>
+        <v>10.67498764742106</v>
       </c>
       <c r="E20">
-        <v>23.46834958941825</v>
+        <v>12.37720966222835</v>
       </c>
       <c r="F20">
-        <v>78.00019675069538</v>
+        <v>68.3693113018233</v>
       </c>
       <c r="G20">
-        <v>1.954157125915987</v>
+        <v>3.794879319824646</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1291,13 +1291,13 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>10.90682409382457</v>
+        <v>8.994423155732377</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>21.95142116980481</v>
+        <v>18.57820832505442</v>
       </c>
       <c r="M20">
         <v>0</v>
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>31.65898506300442</v>
+        <v>27.00112391949776</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>20.67420993110924</v>
+        <v>11.10970664663136</v>
       </c>
       <c r="E21">
-        <v>25.41256917497621</v>
+        <v>13.06920153608609</v>
       </c>
       <c r="F21">
-        <v>83.9164009513632</v>
+        <v>69.15274338703645</v>
       </c>
       <c r="G21">
-        <v>1.909921359088954</v>
+        <v>3.785492783528979</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1338,13 +1338,13 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>11.55596676014346</v>
+        <v>9.166485121848309</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>23.76683837324312</v>
+        <v>18.83173517776822</v>
       </c>
       <c r="M21">
         <v>0</v>
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>33.16143919325475</v>
+        <v>27.23077047983737</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>21.84369074236649</v>
+        <v>11.38873177452845</v>
       </c>
       <c r="E22">
-        <v>26.73736961730398</v>
+        <v>13.50274604383724</v>
       </c>
       <c r="F22">
-        <v>88.16690595201914</v>
+        <v>69.68060700822805</v>
       </c>
       <c r="G22">
-        <v>1.878691428004071</v>
+        <v>3.779555073797508</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1385,13 +1385,13 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>12.00351644750917</v>
+        <v>9.276514144599776</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>24.9870500707905</v>
+        <v>19.00075048141859</v>
       </c>
       <c r="M22">
         <v>0</v>
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>32.35521603789745</v>
+        <v>27.10781041437465</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>21.21313075137087</v>
+        <v>11.24030267097421</v>
       </c>
       <c r="E23">
-        <v>26.02336622029809</v>
+        <v>13.27306566233009</v>
       </c>
       <c r="F23">
-        <v>85.86966289047002</v>
+        <v>69.39745337116867</v>
       </c>
       <c r="G23">
-        <v>1.8956306042988</v>
+        <v>3.782706248824655</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1432,13 +1432,13 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>11.76180490550259</v>
+        <v>9.218015305446915</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>24.33121134542252</v>
+        <v>18.91025500085114</v>
       </c>
       <c r="M23">
         <v>0</v>
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>29.37092983469843</v>
+        <v>26.65111238287394</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>18.93486992003866</v>
+        <v>10.66780264167952</v>
       </c>
       <c r="E24">
-        <v>23.43712389511456</v>
+        <v>12.36558324283882</v>
       </c>
       <c r="F24">
-        <v>77.90816501323235</v>
+        <v>68.3567798537933</v>
       </c>
       <c r="G24">
-        <v>1.954851824688207</v>
+        <v>3.795036090802643</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1479,13 +1479,13 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>10.89647756755913</v>
+        <v>8.991570895089851</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>21.92204223890821</v>
+        <v>18.57412396154531</v>
       </c>
       <c r="M24">
         <v>0</v>
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>26.18236077404619</v>
+        <v>26.17991014643891</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>16.57316057042558</v>
+        <v>10.03137474601879</v>
       </c>
       <c r="E25">
-        <v>20.74291680923844</v>
+        <v>11.3063190074175</v>
       </c>
       <c r="F25">
-        <v>70.19679061982924</v>
+        <v>67.30480274567942</v>
       </c>
       <c r="G25">
-        <v>2.012885835953688</v>
+        <v>3.809194072205365</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1526,13 +1526,13 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>10.0143749150995</v>
+        <v>8.737337027617267</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>19.36336232211168</v>
+        <v>18.22730522225016</v>
       </c>
       <c r="M25">
         <v>0</v>

--- a/Code/Results/Cases/Case_1_95/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_1_95/res_line/loading_percent.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>25.85343767732582</v>
+        <v>24.09099310661616</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>9.550230153615134</v>
+        <v>14.83379634311855</v>
       </c>
       <c r="E2">
-        <v>10.45727246715741</v>
+        <v>18.74885636233187</v>
       </c>
       <c r="F2">
-        <v>66.59311567044979</v>
+        <v>64.84208660163652</v>
       </c>
       <c r="G2">
-        <v>3.820372507857817</v>
+        <v>2.053394395966202</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -445,13 +445,13 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>8.542043128433704</v>
+        <v>9.377141676519873</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>17.98701911609311</v>
+        <v>17.44211740332829</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>25.64593079951253</v>
+        <v>22.65807525775104</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>9.218564300274311</v>
+        <v>13.62964313459572</v>
       </c>
       <c r="E3">
-        <v>9.838963373823209</v>
+        <v>17.36338016939184</v>
       </c>
       <c r="F3">
-        <v>66.15088868684322</v>
+        <v>61.34228653687597</v>
       </c>
       <c r="G3">
-        <v>3.82842641172373</v>
+        <v>2.080314775607571</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -492,13 +492,13 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>8.404907305415554</v>
+        <v>8.944003614216571</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>17.83430720725267</v>
+        <v>16.0949915940216</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>25.52560547109606</v>
+        <v>21.76832300532503</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>9.013021350710956</v>
+        <v>12.87195556351323</v>
       </c>
       <c r="E4">
-        <v>9.438308263863764</v>
+        <v>16.48957450028952</v>
       </c>
       <c r="F4">
-        <v>65.89934625508994</v>
+        <v>59.24299293314297</v>
       </c>
       <c r="G4">
-        <v>3.833609952691488</v>
+        <v>2.096779723675173</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -539,13 +539,13 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>8.318445617014282</v>
+        <v>8.675566193849493</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>17.74576611437235</v>
+        <v>15.38705951212461</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>25.47839708208314</v>
+        <v>21.40312640910047</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>8.928924576134543</v>
+        <v>12.55788782008279</v>
       </c>
       <c r="E5">
-        <v>9.269789327110352</v>
+        <v>16.12693874179583</v>
       </c>
       <c r="F5">
-        <v>65.80189165522424</v>
+        <v>58.39860483311412</v>
       </c>
       <c r="G5">
-        <v>3.835782599112261</v>
+        <v>2.103496917398219</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -586,13 +586,13 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>8.282659733664286</v>
+        <v>8.565352074132763</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>17.71103117816874</v>
+        <v>15.10872534025106</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>25.47066960697197</v>
+        <v>21.34232776367963</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>8.91494437093805</v>
+        <v>12.5053988203119</v>
       </c>
       <c r="E6">
-        <v>9.241491118842847</v>
+        <v>16.06630869258834</v>
       </c>
       <c r="F6">
-        <v>65.78601500025815</v>
+        <v>58.25903413443895</v>
       </c>
       <c r="G6">
-        <v>3.836147018586329</v>
+        <v>2.104613377119454</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -633,13 +633,13 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>8.276684659655485</v>
+        <v>8.54699666960277</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>17.70534567786786</v>
+        <v>15.06237987827864</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>25.52496135712525</v>
+        <v>21.76340845240471</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>9.011888360383182</v>
+        <v>12.86774223809484</v>
       </c>
       <c r="E7">
-        <v>9.436056756307073</v>
+        <v>16.48471127162849</v>
       </c>
       <c r="F7">
-        <v>65.89801147103491</v>
+        <v>59.23156175790449</v>
       </c>
       <c r="G7">
-        <v>3.833639009084099</v>
+        <v>2.096870254992597</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -680,13 +680,13 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>8.317965209398109</v>
+        <v>8.674083361851585</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>17.74529217483821</v>
+        <v>15.38331434514962</v>
       </c>
       <c r="M7">
         <v>0</v>
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>25.78044609405234</v>
+        <v>23.59885640820237</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>9.436347396233648</v>
+        <v>14.42194844691847</v>
       </c>
       <c r="E8">
-        <v>10.24845758293781</v>
+        <v>18.27544688855628</v>
       </c>
       <c r="F8">
-        <v>66.43650560097517</v>
+        <v>63.62405011665621</v>
       </c>
       <c r="G8">
-        <v>3.823100230077505</v>
+        <v>2.062705627156279</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -727,13 +727,13 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>8.495237181464258</v>
+        <v>9.228173192700732</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>17.93329996551435</v>
+        <v>16.98289300047883</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>26.33559009459258</v>
+        <v>27.2588797445962</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>10.24797575814438</v>
+        <v>17.36458158896105</v>
       </c>
       <c r="E9">
-        <v>11.67388266219639</v>
+        <v>21.64741670763782</v>
       </c>
       <c r="F9">
-        <v>67.64952953001678</v>
+        <v>72.73125091132692</v>
       </c>
       <c r="G9">
-        <v>3.80430885996058</v>
+        <v>1.993824519453606</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -774,13 +774,13 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>8.824268732024404</v>
+        <v>10.30805155881763</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>18.34189044097571</v>
+        <v>20.22740945603858</v>
       </c>
       <c r="M9">
         <v>0</v>
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>26.77348414838143</v>
+        <v>30.17404256716001</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>10.82483342222353</v>
+        <v>19.54029800074759</v>
       </c>
       <c r="E10">
-        <v>12.61821553159197</v>
+        <v>24.12550500905811</v>
       </c>
       <c r="F10">
-        <v>68.63380691732878</v>
+        <v>79.9492316605843</v>
       </c>
       <c r="G10">
-        <v>3.791622681225506</v>
+        <v>1.939420706364295</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -821,13 +821,13 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>9.053839261153371</v>
+        <v>11.12516766291792</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>18.66419170239225</v>
+        <v>22.56813119507137</v>
       </c>
       <c r="M10">
         <v>0</v>
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>26.97853322612105</v>
+        <v>31.51174396921753</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>11.08182546718893</v>
+        <v>20.56086287823942</v>
       </c>
       <c r="E11">
-        <v>13.02545256364315</v>
+        <v>25.28403392042694</v>
       </c>
       <c r="F11">
-        <v>69.10104588335767</v>
+        <v>83.50690184966373</v>
       </c>
       <c r="G11">
-        <v>3.786089498728377</v>
+        <v>1.912904964266611</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -868,13 +868,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>9.155475697495021</v>
+        <v>11.51276258293344</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>18.81510858461062</v>
+        <v>23.6476942722484</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>27.05696134690075</v>
+        <v>32.02313673742579</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>11.17827543426223</v>
+        <v>20.95546214424041</v>
       </c>
       <c r="E12">
-        <v>13.17645345916744</v>
+        <v>25.7314002442204</v>
       </c>
       <c r="F12">
-        <v>69.28070448660235</v>
+        <v>84.93451980257149</v>
       </c>
       <c r="G12">
-        <v>3.784028020128146</v>
+        <v>1.902484869161541</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -915,13 +915,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>9.193548345993975</v>
+        <v>11.6633035356046</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>18.87283091702388</v>
+        <v>24.06181087699457</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>27.04003671080956</v>
+        <v>31.91271684257832</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>11.15754306540786</v>
+        <v>20.87003796094734</v>
       </c>
       <c r="E13">
-        <v>13.14407544607468</v>
+        <v>25.63457833759063</v>
       </c>
       <c r="F13">
-        <v>69.24189187143166</v>
+        <v>84.6249921494786</v>
       </c>
       <c r="G13">
-        <v>3.784470498503913</v>
+        <v>1.904748529527208</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -962,13 +962,13 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>9.185367364514807</v>
+        <v>11.63068241305767</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>18.86037460220145</v>
+        <v>23.9723199590257</v>
       </c>
       <c r="M13">
         <v>0</v>
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>26.98497026340439</v>
+        <v>31.55369604461442</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>11.08977831072216</v>
+        <v>20.59313625597009</v>
       </c>
       <c r="E14">
-        <v>13.03793982374854</v>
+        <v>25.32063444540585</v>
       </c>
       <c r="F14">
-        <v>69.11577234730558</v>
+        <v>83.62345000242372</v>
       </c>
       <c r="G14">
-        <v>3.785919224090739</v>
+        <v>1.912056223822015</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1009,13 +1009,13 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>9.158616341484793</v>
+        <v>11.52506099557719</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>18.81984620438212</v>
+        <v>23.68163383260458</v>
       </c>
       <c r="M14">
         <v>0</v>
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>26.95134030083606</v>
+        <v>31.33453463625548</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>11.04815507083494</v>
+        <v>20.42472458593843</v>
       </c>
       <c r="E15">
-        <v>12.97251066370867</v>
+        <v>25.12961940100054</v>
       </c>
       <c r="F15">
-        <v>69.03887302949506</v>
+        <v>83.01570401517843</v>
       </c>
       <c r="G15">
-        <v>3.786811002992855</v>
+        <v>1.916478319938996</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1056,13 +1056,13 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>9.142176176949372</v>
+        <v>11.46091197731602</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>18.79509471447258</v>
+        <v>23.50439141089991</v>
       </c>
       <c r="M15">
         <v>0</v>
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>26.76019625040204</v>
+        <v>30.08709291399447</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>10.8079215381101</v>
+        <v>19.47450184530629</v>
       </c>
       <c r="E16">
-        <v>12.59115210065621</v>
+        <v>24.05073541654954</v>
       </c>
       <c r="F16">
-        <v>68.60365745463156</v>
+        <v>79.72633335094692</v>
       </c>
       <c r="G16">
-        <v>3.79198904084506</v>
+        <v>1.941108544195837</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1103,13 +1103,13 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>9.047139700527673</v>
+        <v>11.10026836252887</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>18.65441163384619</v>
+        <v>22.49811755968092</v>
       </c>
       <c r="M16">
         <v>0</v>
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>26.64439087375056</v>
+        <v>29.32663581207329</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>10.65909139548766</v>
+        <v>18.90162426251975</v>
       </c>
       <c r="E17">
-        <v>12.35147826201945</v>
+        <v>23.39929767865239</v>
       </c>
       <c r="F17">
-        <v>68.34160520571541</v>
+        <v>77.79675222442872</v>
       </c>
       <c r="G17">
-        <v>3.795226241804079</v>
+        <v>1.955692696653884</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1150,13 +1150,13 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>8.988112328173688</v>
+        <v>10.8839474906282</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>18.56917678374137</v>
+        <v>21.88644418457112</v>
       </c>
       <c r="M17">
         <v>0</v>
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>26.57833691994466</v>
+        <v>28.89008052645949</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>10.5729822997227</v>
+        <v>18.57473086644723</v>
       </c>
       <c r="E18">
-        <v>12.21152060808207</v>
+        <v>23.02722019786499</v>
       </c>
       <c r="F18">
-        <v>68.19271886506681</v>
+        <v>76.70516969782734</v>
       </c>
       <c r="G18">
-        <v>3.797110602333665</v>
+        <v>1.963924575206689</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1197,13 +1197,13 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>8.953898844770881</v>
+        <v>10.76090262898322</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>18.52055948186517</v>
+        <v>21.53576524956959</v>
       </c>
       <c r="M18">
         <v>0</v>
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>26.55606920374106</v>
+        <v>28.74233955610214</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>10.54374318267953</v>
+        <v>18.46441072217813</v>
       </c>
       <c r="E19">
-        <v>12.1637720530945</v>
+        <v>22.9015911201855</v>
       </c>
       <c r="F19">
-        <v>68.14262661927405</v>
+        <v>76.33842165733407</v>
       </c>
       <c r="G19">
-        <v>3.797752474600249</v>
+        <v>1.966687842647194</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1244,13 +1244,13 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>8.942270065920468</v>
+        <v>10.71944360241436</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>18.504169851408</v>
+        <v>21.41715106819854</v>
       </c>
       <c r="M19">
         <v>0</v>
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>26.65666162782803</v>
+        <v>29.40748232682334</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>10.67498764742106</v>
+        <v>18.96231612719153</v>
       </c>
       <c r="E20">
-        <v>12.37720966222835</v>
+        <v>23.46834958941825</v>
       </c>
       <c r="F20">
-        <v>68.3693113018233</v>
+        <v>78.00019675069477</v>
       </c>
       <c r="G20">
-        <v>3.794879319824646</v>
+        <v>1.95415712591584</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1291,13 +1291,13 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>8.994423155732377</v>
+        <v>10.90682409382464</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>18.57820832505442</v>
+        <v>21.95142116980476</v>
       </c>
       <c r="M20">
         <v>0</v>
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>27.00112391949776</v>
+        <v>31.6589850630044</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>11.10970664663136</v>
+        <v>20.67420993110928</v>
       </c>
       <c r="E21">
-        <v>13.06920153608609</v>
+        <v>25.41256917497626</v>
       </c>
       <c r="F21">
-        <v>69.15274338703645</v>
+        <v>83.91640095136339</v>
       </c>
       <c r="G21">
-        <v>3.785492783528979</v>
+        <v>1.909921359088934</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1338,13 +1338,13 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>9.166485121848309</v>
+        <v>11.55596676014357</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>18.83173517776822</v>
+        <v>23.76683837324312</v>
       </c>
       <c r="M21">
         <v>0</v>
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>27.23077047983737</v>
+        <v>33.1614391932548</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>11.38873177452845</v>
+        <v>21.84369074236654</v>
       </c>
       <c r="E22">
-        <v>13.50274604383724</v>
+        <v>26.73736961730402</v>
       </c>
       <c r="F22">
-        <v>69.68060700822805</v>
+        <v>88.16690595201925</v>
       </c>
       <c r="G22">
-        <v>3.779555073797508</v>
+        <v>1.878691428004218</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1385,13 +1385,13 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>9.276514144599776</v>
+        <v>12.00351644750916</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>19.00075048141859</v>
+        <v>24.98705007079046</v>
       </c>
       <c r="M22">
         <v>0</v>
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>27.10781041437465</v>
+        <v>32.35521603789736</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>11.24030267097421</v>
+        <v>21.21313075137084</v>
       </c>
       <c r="E23">
-        <v>13.27306566233009</v>
+        <v>26.02336622029794</v>
       </c>
       <c r="F23">
-        <v>69.39745337116867</v>
+        <v>85.86966289046987</v>
       </c>
       <c r="G23">
-        <v>3.782706248824655</v>
+        <v>1.89563060429856</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1432,13 +1432,13 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>9.218015305446915</v>
+        <v>11.76180490550248</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>18.91025500085114</v>
+        <v>24.3312113454225</v>
       </c>
       <c r="M23">
         <v>0</v>
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>26.65111238287394</v>
+        <v>29.37092983469854</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>10.66780264167952</v>
+        <v>18.93486992003877</v>
       </c>
       <c r="E24">
-        <v>12.36558324283882</v>
+        <v>23.43712389511456</v>
       </c>
       <c r="F24">
-        <v>68.3567798537933</v>
+        <v>77.90816501323279</v>
       </c>
       <c r="G24">
-        <v>3.795036090802643</v>
+        <v>1.954851824688326</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1479,13 +1479,13 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>8.991570895089851</v>
+        <v>10.89647756755911</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>18.57412396154531</v>
+        <v>21.9220422389083</v>
       </c>
       <c r="M24">
         <v>0</v>
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>26.17991014643891</v>
+        <v>26.18236077404616</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>10.03137474601879</v>
+        <v>16.57316057042558</v>
       </c>
       <c r="E25">
-        <v>11.3063190074175</v>
+        <v>20.74291680923846</v>
       </c>
       <c r="F25">
-        <v>67.30480274567942</v>
+        <v>70.19679061982912</v>
       </c>
       <c r="G25">
-        <v>3.809194072205365</v>
+        <v>2.012885835953567</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1526,13 +1526,13 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>8.737337027617267</v>
+        <v>10.01437491509944</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>18.22730522225016</v>
+        <v>19.36336232211177</v>
       </c>
       <c r="M25">
         <v>0</v>
